--- a/NTDS_Maastricht.xlsx
+++ b/NTDS_Maastricht.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15600" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="16200" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
-    <t>Breiten</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Nummer</t>
   </si>
   <si>
@@ -192,6 +186,12 @@
   </si>
   <si>
     <t>Ja / Yes</t>
+  </si>
+  <si>
+    <t>Open Class</t>
+  </si>
+  <si>
+    <t>Breitensport</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,8 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
@@ -588,73 +589,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -662,20 +663,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -684,17 +685,17 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2"/>
       <c r="S2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -704,22 +705,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -728,17 +729,17 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2"/>
       <c r="S3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -748,36 +749,36 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -785,44 +786,44 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V5" s="2"/>
     </row>
@@ -831,20 +832,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2">
         <v>8</v>
@@ -853,18 +854,18 @@
         <v>8</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2"/>
       <c r="S6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V6" s="2"/>
     </row>
@@ -873,20 +874,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>7</v>
@@ -895,20 +896,20 @@
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2"/>
       <c r="S7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V7" s="2"/>
     </row>
@@ -917,20 +918,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
@@ -939,17 +940,17 @@
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2"/>
       <c r="S8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -959,20 +960,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
@@ -981,14 +982,14 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>

--- a/NTDS_Maastricht.xlsx
+++ b/NTDS_Maastricht.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16800" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="18000" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>E-mail</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Team-captain</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -185,16 +182,16 @@
     <t>Jury Latin</t>
   </si>
   <si>
-    <t>Allergiën / dieet</t>
-  </si>
-  <si>
     <t>Wil je vrijwilliger zijn voor dit NTDS?</t>
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
   </si>
   <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
+    <t>Teamcaptain</t>
+  </si>
+  <si>
+    <t>Allergiën / Dieet</t>
   </si>
 </sst>
 </file>
@@ -558,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,18 +587,18 @@
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -613,16 +610,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -631,58 +628,55 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -691,42 +685,42 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="2"/>
       <c r="S2" t="s">
         <v>5</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -735,85 +729,85 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2"/>
       <c r="S3" t="s">
         <v>5</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>5</v>
@@ -829,29 +823,29 @@
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2">
         <v>8</v>
@@ -860,10 +854,10 @@
         <v>8</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2"/>
       <c r="S6" t="s">
@@ -871,29 +865,29 @@
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2">
         <v>7</v>
@@ -902,42 +896,42 @@
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="2"/>
       <c r="S7" t="s">
         <v>5</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
@@ -946,40 +940,40 @@
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="2"/>
       <c r="S8" t="s">
         <v>5</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
@@ -988,19 +982,19 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1015,7 +1009,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1030,7 +1024,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1045,7 +1039,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1060,7 +1054,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1076,7 +1070,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1092,7 +1086,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
